--- a/社区运营.xlsx
+++ b/社区运营.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>系统运维专家</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>统计实践：20170428</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GitBook</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -275,13 +271,16 @@
   <si>
     <t>CNZZ网站排名</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计时间：20170428</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,8 +349,37 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF6600"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +434,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -457,7 +491,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,8 +541,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -561,12 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -595,35 +627,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,8 +673,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -685,6 +738,8 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -709,6 +764,8 @@
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1336,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1382,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -1423,7 +1480,7 @@
       <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="58">
         <v>35</v>
       </c>
       <c r="J2" s="8">
@@ -1559,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1628,7 +1685,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1667,7 +1724,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1706,7 +1763,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1802,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1784,7 +1841,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1823,7 +1880,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1862,7 +1919,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="41">
         <v>0</v>
       </c>
     </row>
@@ -1870,7 +1927,9 @@
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11">
+        <v>20170428</v>
+      </c>
       <c r="C14" s="10">
         <v>449</v>
       </c>
@@ -1901,7 +1960,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="42">
         <f t="shared" si="0"/>
         <v>2094</v>
       </c>
@@ -1911,6 +1970,558 @@
     </row>
     <row r="15" spans="1:13" s="10" customFormat="1">
       <c r="B15" s="11"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="59">
+        <v>459</v>
+      </c>
+      <c r="D18" s="59">
+        <v>344</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>76</v>
+      </c>
+      <c r="G18" s="8">
+        <v>37</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="58">
+        <v>36</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4">
+        <f>SUM(C18:J18)</f>
+        <v>955</v>
+      </c>
+      <c r="L18" s="6">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>565</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>109</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f>SUM(C19:J19)</f>
+        <v>674</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>275</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>124</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f>SUM(C20:J20)</f>
+        <v>399</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="56">
+        <v>131</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f>SUM(C21:J21)</f>
+        <v>131</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>85</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" ref="K19:K30" si="2">SUM(C22:J22)</f>
+        <v>85</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="10" customFormat="1">
+      <c r="A23" s="10">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>42</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="L23" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="10" customFormat="1">
+      <c r="A24" s="10">
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>30</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L24" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="10" customFormat="1">
+      <c r="A25" s="10">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="57">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="L25" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1">
+      <c r="A26" s="10">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L26" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="10" customFormat="1">
+      <c r="A27" s="10">
+        <v>10</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L27" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="10" customFormat="1">
+      <c r="A28" s="10">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L28" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="10" customFormat="1">
+      <c r="A29" s="10">
+        <v>12</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="57">
+        <v>11</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="L29" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="10" customFormat="1">
+      <c r="A30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="11">
+        <v>20170528</v>
+      </c>
+      <c r="C30" s="10">
+        <v>459</v>
+      </c>
+      <c r="D30" s="10">
+        <f>SUM(D18:D29)</f>
+        <v>367</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" ref="E30:J30" si="3">SUM(E18:E29)</f>
+        <v>1114</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="H30" s="10">
+        <v>85</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" ref="I30:N30" si="4">SUM(I18:I29)</f>
+        <v>269</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K30" s="42">
+        <f>SUM(C30:J30)</f>
+        <v>2410</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1.24E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1926,52 +2537,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="21" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="30"/>
-    <col min="4" max="4" width="10.83203125" style="26"/>
-    <col min="5" max="5" width="11.1640625" style="26" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="43"/>
-    <col min="10" max="10" width="10.83203125" style="35"/>
-    <col min="11" max="11" width="11.1640625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="27"/>
+    <col min="3" max="3" width="10.83203125" style="28"/>
+    <col min="4" max="4" width="10.83203125" style="24"/>
+    <col min="5" max="5" width="11.1640625" style="24" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="35"/>
+    <col min="10" max="10" width="10.83203125" style="31"/>
+    <col min="11" max="11" width="11.1640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="25"/>
     <col min="13" max="13" width="66.83203125" style="15" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="21"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="47" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="55"/>
+      <c r="L1" s="39" t="s">
         <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1979,226 +2590,226 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" s="31" customFormat="1">
-      <c r="A3" s="46">
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" s="29" customFormat="1">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="37">
         <v>201606</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>90</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>4</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="33">
         <v>752</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="33">
         <v>18</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="35">
         <v>66</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="35">
         <v>5</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="31">
         <v>6163</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="31">
         <v>17</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="40">
         <f>SUM(D3:K3)</f>
         <v>7115</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="46">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="37">
         <v>2015</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>201</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>4</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="33">
         <v>1168</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="33">
         <v>6</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="35">
         <v>5547</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="35">
         <v>46</v>
       </c>
-      <c r="J4" s="35">
-        <v>0</v>
-      </c>
-      <c r="K4" s="35">
-        <v>0</v>
-      </c>
-      <c r="L4" s="48">
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+      <c r="L4" s="40">
         <f t="shared" ref="L4:L21" si="0">SUM(D4:K4)</f>
         <v>6972</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="46">
+      <c r="A5" s="38">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="37">
         <v>201601</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>139</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="33">
         <v>5553</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="33">
         <v>82</v>
       </c>
-      <c r="H5" s="43">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="35">
-        <v>0</v>
-      </c>
-      <c r="K5" s="35">
-        <v>0</v>
-      </c>
-      <c r="L5" s="48">
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
         <f t="shared" si="0"/>
         <v>5775</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="46">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="37">
         <v>201607</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>94</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>1</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="33">
         <v>413</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="33">
         <v>9</v>
       </c>
-      <c r="H6" s="43">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43">
-        <v>0</v>
-      </c>
-      <c r="J6" s="35">
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31">
         <v>4929</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="31">
         <v>16</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="40">
         <f t="shared" si="0"/>
         <v>5462</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="46">
+      <c r="A7" s="38">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="37">
         <v>201608</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <v>16</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>2</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="33">
         <v>385</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="33">
         <v>11</v>
       </c>
-      <c r="H7" s="43">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="35">
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
         <v>5222</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="31">
         <v>20</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="40">
         <f t="shared" si="0"/>
         <v>5656</v>
       </c>
@@ -2207,40 +2818,40 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="46">
+      <c r="A8" s="38">
         <v>6</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="37">
         <v>201609</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>110</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>6</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="33">
         <v>262</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="33">
         <v>5</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="35">
         <v>2939</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="35">
         <v>138</v>
       </c>
-      <c r="J8" s="35">
-        <v>0</v>
-      </c>
-      <c r="K8" s="35">
-        <v>0</v>
-      </c>
-      <c r="L8" s="48">
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40">
         <f t="shared" si="0"/>
         <v>3460</v>
       </c>
@@ -2249,517 +2860,514 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="46">
+      <c r="A9" s="38">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="37">
         <v>201601</v>
       </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0</v>
-      </c>
-      <c r="F9" s="39">
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
         <v>319</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="35">
         <v>1902</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="35">
         <v>3</v>
       </c>
-      <c r="J9" s="35">
-        <v>0</v>
-      </c>
-      <c r="K9" s="35">
-        <v>0</v>
-      </c>
-      <c r="L9" s="48">
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40">
         <f t="shared" si="0"/>
         <v>2225</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="46">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="37">
         <v>201606</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>120</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>4</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="33">
         <v>1494</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="33">
         <v>45</v>
       </c>
-      <c r="H10" s="43">
-        <v>0</v>
-      </c>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35">
-        <v>0</v>
-      </c>
-      <c r="K10" s="35">
-        <v>0</v>
-      </c>
-      <c r="L10" s="48">
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40">
         <f t="shared" si="0"/>
         <v>1663</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="46">
+      <c r="A11" s="38">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="37">
         <v>201602</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>49</v>
       </c>
-      <c r="E11" s="26">
-        <v>0</v>
-      </c>
-      <c r="F11" s="39">
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
         <v>1859</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="33">
         <v>37</v>
       </c>
-      <c r="H11" s="43">
-        <v>0</v>
-      </c>
-      <c r="I11" s="43">
-        <v>0</v>
-      </c>
-      <c r="J11" s="35">
-        <v>0</v>
-      </c>
-      <c r="K11" s="35">
-        <v>0</v>
-      </c>
-      <c r="L11" s="48">
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+      <c r="L11" s="40">
         <f t="shared" si="0"/>
         <v>1945</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="46">
+      <c r="A12" s="38">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="37">
         <v>201607</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>272</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>1</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="33">
         <v>857</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="33">
         <v>5</v>
       </c>
-      <c r="H12" s="43">
-        <v>0</v>
-      </c>
-      <c r="I12" s="43">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35">
-        <v>0</v>
-      </c>
-      <c r="L12" s="48">
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
         <f t="shared" si="0"/>
         <v>1135</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="46">
+      <c r="A13" s="38">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="37">
         <v>201604</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <v>96</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>8</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="33">
         <v>832</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="33">
         <v>34</v>
       </c>
-      <c r="H13" s="43">
-        <v>0</v>
-      </c>
-      <c r="I13" s="43">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35">
-        <v>0</v>
-      </c>
-      <c r="L13" s="48">
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="40">
         <f t="shared" si="0"/>
         <v>970</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="46">
+      <c r="A14" s="38">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="37">
         <v>201702</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <v>230</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>24</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="33">
         <v>568</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="33">
         <v>34</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="35">
         <v>86</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="35">
         <v>2</v>
       </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35">
-        <v>0</v>
-      </c>
-      <c r="L14" s="48">
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
         <f t="shared" si="0"/>
         <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="46">
+      <c r="A15" s="38">
         <v>13</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="37">
         <v>201602</v>
       </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
-      <c r="E15" s="26">
-        <v>0</v>
-      </c>
-      <c r="F15" s="39">
-        <v>0</v>
-      </c>
-      <c r="G15" s="39">
-        <v>0</v>
-      </c>
-      <c r="H15" s="43">
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
         <v>583</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="35">
         <v>8</v>
       </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35">
-        <v>0</v>
-      </c>
-      <c r="L15" s="48">
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
         <f t="shared" si="0"/>
         <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="46">
+      <c r="A16" s="38">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="37">
         <v>201602</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>15</v>
       </c>
-      <c r="E16" s="26">
-        <v>0</v>
-      </c>
-      <c r="F16" s="39">
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
         <v>1214</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="33">
         <v>11</v>
       </c>
-      <c r="H16" s="43">
-        <v>0</v>
-      </c>
-      <c r="I16" s="43">
-        <v>0</v>
-      </c>
-      <c r="J16" s="35">
-        <v>0</v>
-      </c>
-      <c r="K16" s="35">
-        <v>0</v>
-      </c>
-      <c r="L16" s="48">
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
         <f t="shared" si="0"/>
         <v>1240</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="46">
+      <c r="A17" s="38">
         <v>15</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="37">
         <v>2015</v>
       </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="39">
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
         <v>1270</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="33">
         <v>12</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="35">
         <v>313</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="35">
         <v>5</v>
       </c>
-      <c r="J17" s="35">
-        <v>0</v>
-      </c>
-      <c r="K17" s="35">
-        <v>0</v>
-      </c>
-      <c r="L17" s="48">
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="40">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="46">
+      <c r="A18" s="38">
         <v>16</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="37">
         <v>201611</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <v>114</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>2</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="33">
         <v>237</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="33">
         <v>4</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="35">
         <v>227</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="35">
         <v>18</v>
       </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
-        <v>0</v>
-      </c>
-      <c r="L18" s="48">
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="40">
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="46">
+      <c r="A19" s="38">
         <v>17</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="37">
         <v>201611</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>152</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>6</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="33">
         <v>131</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="33">
         <v>1</v>
       </c>
-      <c r="H19" s="43">
-        <v>0</v>
-      </c>
-      <c r="I19" s="43">
-        <v>0</v>
-      </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
-        <v>0</v>
-      </c>
-      <c r="L19" s="48">
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="46">
+      <c r="A20" s="38">
         <v>18</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="37">
         <v>201608</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>74</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>1</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="33">
         <v>149</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="33">
         <v>6</v>
       </c>
-      <c r="H20" s="43">
-        <v>0</v>
-      </c>
-      <c r="I20" s="43">
-        <v>0</v>
-      </c>
-      <c r="J20" s="35">
-        <v>0</v>
-      </c>
-      <c r="K20" s="35">
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="46"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="35">
+      <c r="A21" s="38"/>
+      <c r="B21" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="31">
         <f t="shared" ref="D21:I21" si="1">SUM(D3:D20)</f>
         <v>1772</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="31">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="31">
         <f t="shared" si="1"/>
         <v>17463</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="31">
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="31">
         <f t="shared" si="1"/>
         <v>11663</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="31">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="31">
         <f>SUM(J3:J20)</f>
         <v>16314</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="31">
         <f t="shared" ref="K21" si="2">SUM(K3:K20)</f>
         <v>53</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="40">
         <f t="shared" si="0"/>
         <v>47875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="B23" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2784,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2795,86 +3403,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="20">
-      <c r="A2" s="53">
+      <c r="A2" s="45">
         <v>20160620</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="45">
         <v>2218497</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" ht="20">
-      <c r="A3" s="53">
+      <c r="A3" s="45">
         <v>20160909</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="45">
         <v>2169011</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" ht="20">
-      <c r="A4" s="53">
+      <c r="A4" s="45">
         <v>20170428</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="44">
         <v>1730889</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:4" ht="20">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="45">
+        <v>20170528</v>
+      </c>
+      <c r="B5" s="45">
+        <v>1720931</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="20">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/社区运营.xlsx
+++ b/社区运营.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>系统运维专家</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -379,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +440,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -491,7 +497,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -545,8 +551,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -673,6 +681,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,23 +720,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -740,6 +754,7 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -766,6 +781,7 @@
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1393,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1480,7 +1496,7 @@
       <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="58">
+      <c r="I2" s="50">
         <v>35</v>
       </c>
       <c r="J2" s="8">
@@ -2017,10 +2033,10 @@
       <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="51">
         <v>459</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="51">
         <v>344</v>
       </c>
       <c r="E18" s="4">
@@ -2035,7 +2051,7 @@
       <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="50">
         <v>36</v>
       </c>
       <c r="J18" s="8">
@@ -2101,7 +2117,7 @@
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="48">
         <v>275</v>
       </c>
       <c r="F20" s="4">
@@ -2140,7 +2156,7 @@
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="48">
         <v>131</v>
       </c>
       <c r="F21" s="4">
@@ -2198,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" ref="K19:K30" si="2">SUM(C22:J22)</f>
+        <f t="shared" ref="K22:K29" si="2">SUM(C22:J22)</f>
         <v>85</v>
       </c>
       <c r="L22" s="7">
@@ -2293,7 +2309,7 @@
       <c r="C25" s="10">
         <v>0</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="49">
         <v>23</v>
       </c>
       <c r="E25" s="10">
@@ -2452,7 +2468,7 @@
       <c r="D29" s="10">
         <v>0</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="49">
         <v>11</v>
       </c>
       <c r="F29" s="10">
@@ -2493,7 +2509,7 @@
         <v>367</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" ref="E30:J30" si="3">SUM(E18:E29)</f>
+        <f t="shared" ref="E30:G30" si="3">SUM(E18:E29)</f>
         <v>1114</v>
       </c>
       <c r="F30" s="10">
@@ -2508,7 +2524,7 @@
         <v>85</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" ref="I30:N30" si="4">SUM(I18:I29)</f>
+        <f t="shared" ref="I30:J30" si="4">SUM(I18:I29)</f>
         <v>269</v>
       </c>
       <c r="J30" s="10">
@@ -2521,6 +2537,559 @@
       </c>
       <c r="L30" s="13">
         <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="51">
+        <v>528</v>
+      </c>
+      <c r="D34" s="51">
+        <v>377</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="61">
+        <v>252</v>
+      </c>
+      <c r="G34" s="61">
+        <v>159</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="62">
+        <v>35</v>
+      </c>
+      <c r="J34" s="8">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4">
+        <f>SUM(C34:J34)</f>
+        <v>1354</v>
+      </c>
+      <c r="L34" s="6">
+        <f>J34/K34</f>
+        <v>2.2156573116691287E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>649</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>162</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f>SUM(C35:J35)</f>
+        <v>811</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="48">
+        <v>302</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>177</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <f>SUM(C36:J36)</f>
+        <v>479</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="48">
+        <v>147</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f>SUM(C37:J37)</f>
+        <v>147</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="61">
+        <v>135</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:K45" si="5">SUM(C38:J38)</f>
+        <v>135</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="10">
+        <v>6</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>43</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="L39" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="10">
+        <v>7</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>32</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="L40" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="10">
+        <v>8</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="49">
+        <v>30</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L41" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="10">
+        <v>9</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>21</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="L42" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="10">
+        <v>10</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>21</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="L43" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="10">
+        <v>11</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>25</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="L44" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="10">
+        <v>12</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="49">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="L45" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="11">
+        <v>20170702</v>
+      </c>
+      <c r="C46" s="10">
+        <v>528</v>
+      </c>
+      <c r="D46" s="10">
+        <f>SUM(D34:D45)</f>
+        <v>407</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" ref="E46:G46" si="6">SUM(E34:E45)</f>
+        <v>1251</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="H46" s="10">
+        <v>135</v>
+      </c>
+      <c r="I46" s="10">
+        <f t="shared" ref="I46:J46" si="7">SUM(I34:I45)</f>
+        <v>374</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K46" s="42">
+        <f>SUM(C46:J46)</f>
+        <v>3109</v>
+      </c>
+      <c r="L46" s="13">
+        <f>3/3040</f>
+        <v>9.8684210526315793E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2566,22 +3135,22 @@
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="48" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="60"/>
       <c r="L1" s="39" t="s">
         <v>38</v>
       </c>
@@ -3329,7 +3898,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="38"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="52" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="37"/>

--- a/社区运营.xlsx
+++ b/社区运营.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>系统运维专家</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,13 +274,17 @@
   </si>
   <si>
     <t>统计时间：20170428</t>
+  </si>
+  <si>
+    <t>增幅%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +381,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="12">
@@ -497,7 +507,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -553,8 +563,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -726,8 +740,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="59">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -755,6 +771,8 @@
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -782,6 +800,8 @@
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1411,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3054,6 +3074,7 @@
         <v>20170702</v>
       </c>
       <c r="C46" s="10">
+        <f>SUM(C34:C45)</f>
         <v>528</v>
       </c>
       <c r="D46" s="10">
@@ -3061,11 +3082,11 @@
         <v>407</v>
       </c>
       <c r="E46" s="10">
-        <f t="shared" ref="E46:G46" si="6">SUM(E34:E45)</f>
+        <f>SUM(E34:E45)</f>
         <v>1251</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E46:K46" si="6">SUM(F34:F45)</f>
         <v>252</v>
       </c>
       <c r="G46" s="10">
@@ -3073,18 +3094,19 @@
         <v>159</v>
       </c>
       <c r="H46" s="10">
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" ref="I46:J46" si="7">SUM(I34:I45)</f>
+        <f>SUM(I34:I45)</f>
         <v>374</v>
       </c>
       <c r="J46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K46" s="42">
-        <f>SUM(C46:J46)</f>
+        <f>SUM(K34:K45)</f>
         <v>3109</v>
       </c>
       <c r="L46" s="13">
@@ -3961,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3978,7 +4000,9 @@
       <c r="B1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="45"/>
+      <c r="C1" s="47" t="s">
+        <v>64</v>
+      </c>
       <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="20">
@@ -3998,7 +4022,10 @@
       <c r="B3" s="45">
         <v>2169011</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="64">
+        <f>(2218497-2169011)/2218497*100</f>
+        <v>2.2306092818696621</v>
+      </c>
       <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" ht="20">
@@ -4008,7 +4035,10 @@
       <c r="B4" s="44">
         <v>1730889</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="64">
+        <f>(2169011-1730889)/2169011*100</f>
+        <v>20.199159893610499</v>
+      </c>
       <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:4" ht="20">
@@ -4018,13 +4048,23 @@
       <c r="B5" s="45">
         <v>1720931</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="64">
+        <f>(1730889-1720931)/1730889*100</f>
+        <v>0.57531129956918092</v>
+      </c>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" ht="20">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="45">
+        <v>20170703</v>
+      </c>
+      <c r="B6" s="63">
+        <v>820615</v>
+      </c>
+      <c r="C6" s="64">
+        <f>(1720931-820615)/1720931*100</f>
+        <v>52.315636129513621</v>
+      </c>
       <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="17">
@@ -4060,6 +4100,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/社区运营.xlsx
+++ b/社区运营.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
   <si>
     <t>系统运维专家</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,7 +276,23 @@
     <t>统计时间：20170428</t>
   </si>
   <si>
-    <t>增幅%</t>
+    <t>涨幅%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络与信息安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构师的修炼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大历史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telegram</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,8 +404,15 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -507,7 +536,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,8 +596,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -710,6 +741,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,16 +773,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -773,6 +813,7 @@
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -802,6 +843,7 @@
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1429,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2559,7 +2601,7 @@
         <v>1.24E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -2597,7 +2639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -2613,16 +2655,16 @@
       <c r="E34" s="4">
         <v>0</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="53">
         <v>252</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="53">
         <v>159</v>
       </c>
       <c r="H34" s="9">
         <v>0</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="54">
         <v>35</v>
       </c>
       <c r="J34" s="8">
@@ -2637,7 +2679,7 @@
         <v>2.2156573116691287E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -2676,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="4">
         <v>3</v>
       </c>
@@ -2715,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="4">
         <v>4</v>
       </c>
@@ -2754,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -2776,7 +2818,7 @@
       <c r="G38" s="4">
         <v>0</v>
       </c>
-      <c r="H38" s="61">
+      <c r="H38" s="53">
         <v>135</v>
       </c>
       <c r="I38" s="4">
@@ -2793,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="10">
         <v>6</v>
       </c>
@@ -2832,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="10">
         <v>7</v>
       </c>
@@ -2871,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="10">
         <v>8</v>
       </c>
@@ -2910,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="10">
         <v>9</v>
       </c>
@@ -2949,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" s="10">
         <v>10</v>
       </c>
@@ -2988,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="10">
         <v>11</v>
       </c>
@@ -3027,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" s="10">
         <v>12</v>
       </c>
@@ -3066,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" s="10" t="s">
         <v>22</v>
       </c>
@@ -3086,7 +3128,7 @@
         <v>1251</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" ref="E46:K46" si="6">SUM(F34:F45)</f>
+        <f t="shared" ref="F46:J46" si="6">SUM(F34:F45)</f>
         <v>252</v>
       </c>
       <c r="G46" s="10">
@@ -3110,6 +3152,567 @@
         <v>3109</v>
       </c>
       <c r="L46" s="13">
+        <f>3/3040</f>
+        <v>9.8684210526315793E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="4">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="51">
+        <v>535</v>
+      </c>
+      <c r="D49" s="51">
+        <v>416</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="53">
+        <v>289</v>
+      </c>
+      <c r="G49" s="65">
+        <v>173</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="67">
+        <v>35</v>
+      </c>
+      <c r="J49" s="9">
+        <v>3</v>
+      </c>
+      <c r="K49" s="4">
+        <f>SUM(C49:J49)</f>
+        <v>1451</v>
+      </c>
+      <c r="L49" s="6">
+        <f>J49/K49</f>
+        <v>2.0675396278428669E-3</v>
+      </c>
+      <c r="M49" s="50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4">
+        <v>2</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>720</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="67">
+        <v>163</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f>SUM(C50:J50)</f>
+        <v>883</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="48">
+        <v>334</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="67">
+        <v>179</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f>SUM(C51:J51)</f>
+        <v>513</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4">
+        <v>4</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="48">
+        <v>168</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="66">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f>SUM(C52:J52)</f>
+        <v>168</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="53">
+        <v>148</v>
+      </c>
+      <c r="I53" s="66">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" ref="K53:K60" si="7">SUM(C53:J53)</f>
+        <v>148</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <v>46</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="66">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0</v>
+      </c>
+      <c r="K54" s="10">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="L54" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="10">
+        <v>7</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <v>36</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="66">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L55" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="10">
+        <v>8</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <v>30</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="66">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="L56" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="10">
+        <v>9</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>22</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="66">
+        <v>0</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="L57" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="10">
+        <v>10</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <v>23</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="66">
+        <v>0</v>
+      </c>
+      <c r="J58" s="10">
+        <v>0</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="L58" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="10">
+        <v>11</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="10">
+        <v>0</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="42">
+        <v>43</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0</v>
+      </c>
+      <c r="I59" s="66">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="L59" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="10">
+        <v>12</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="49">
+        <v>12</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="66">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="L60" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="11">
+        <v>20170702</v>
+      </c>
+      <c r="C61" s="10">
+        <f>SUM(C49:C60)</f>
+        <v>535</v>
+      </c>
+      <c r="D61" s="10">
+        <f>SUM(D49:D60)</f>
+        <v>446</v>
+      </c>
+      <c r="E61" s="10">
+        <f>SUM(E49:E60)</f>
+        <v>1404</v>
+      </c>
+      <c r="F61" s="10">
+        <f t="shared" ref="F61:J61" si="8">SUM(F49:F60)</f>
+        <v>289</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="8"/>
+        <v>148</v>
+      </c>
+      <c r="I61" s="66">
+        <f>SUM(I49:I60)</f>
+        <v>377</v>
+      </c>
+      <c r="J61" s="10">
+        <f t="shared" ref="J61:N61" si="9">SUM(J49:J60)</f>
+        <v>3</v>
+      </c>
+      <c r="K61" s="42">
+        <f>SUM(K49:K60)</f>
+        <v>3375</v>
+      </c>
+      <c r="L61" s="13">
         <f>3/3040</f>
         <v>9.8684210526315793E-4</v>
       </c>
@@ -3157,22 +3760,22 @@
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="53" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="59" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="60"/>
+      <c r="K1" s="64"/>
       <c r="L1" s="39" t="s">
         <v>38</v>
       </c>
@@ -3983,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4022,7 +4625,7 @@
       <c r="B3" s="45">
         <v>2169011</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="56">
         <f>(2218497-2169011)/2218497*100</f>
         <v>2.2306092818696621</v>
       </c>
@@ -4035,7 +4638,7 @@
       <c r="B4" s="44">
         <v>1730889</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="56">
         <f>(2169011-1730889)/2169011*100</f>
         <v>20.199159893610499</v>
       </c>
@@ -4048,7 +4651,7 @@
       <c r="B5" s="45">
         <v>1720931</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="56">
         <f>(1730889-1720931)/1730889*100</f>
         <v>0.57531129956918092</v>
       </c>
@@ -4058,43 +4661,49 @@
       <c r="A6" s="45">
         <v>20170703</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="55">
         <v>820615</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="56">
         <f>(1720931-820615)/1720931*100</f>
         <v>52.315636129513621</v>
       </c>
       <c r="D6" s="45"/>
     </row>
-    <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+    <row r="7" spans="1:4" ht="20">
+      <c r="A7" s="45">
+        <v>20170808</v>
+      </c>
+      <c r="B7" s="45">
+        <v>676438</v>
+      </c>
+      <c r="C7" s="56">
+        <v>15.569000000000001</v>
+      </c>
       <c r="D7" s="43"/>
     </row>
-    <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+    <row r="8" spans="1:4" ht="20">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="43"/>
     </row>
-    <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+    <row r="9" spans="1:4" ht="20">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="43"/>
     </row>
-    <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+    <row r="10" spans="1:4" ht="20">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="43"/>
     </row>
-    <row r="11" spans="1:4" ht="17">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+    <row r="11" spans="1:4" ht="20">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="43"/>
     </row>
   </sheetData>

--- a/社区运营.xlsx
+++ b/社区运营.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
   <si>
     <t>系统运维专家</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -536,7 +536,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,8 +598,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -749,6 +751,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,17 +784,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -814,6 +819,7 @@
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -844,6 +850,7 @@
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A55" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3181,7 +3188,7 @@
       <c r="H48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="66" t="s">
+      <c r="I48" s="58" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -3216,13 +3223,13 @@
       <c r="F49" s="53">
         <v>289</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="57">
         <v>173</v>
       </c>
       <c r="H49" s="9">
         <v>0</v>
       </c>
-      <c r="I49" s="67">
+      <c r="I49" s="59">
         <v>35</v>
       </c>
       <c r="J49" s="9">
@@ -3265,7 +3272,7 @@
       <c r="H50" s="9">
         <v>0</v>
       </c>
-      <c r="I50" s="67">
+      <c r="I50" s="59">
         <v>163</v>
       </c>
       <c r="J50" s="4">
@@ -3304,7 +3311,7 @@
       <c r="H51" s="9">
         <v>0</v>
       </c>
-      <c r="I51" s="67">
+      <c r="I51" s="59">
         <v>179</v>
       </c>
       <c r="J51" s="4">
@@ -3343,7 +3350,7 @@
       <c r="H52" s="9">
         <v>0</v>
       </c>
-      <c r="I52" s="66">
+      <c r="I52" s="58">
         <v>0</v>
       </c>
       <c r="J52" s="4">
@@ -3382,7 +3389,7 @@
       <c r="H53" s="53">
         <v>148</v>
       </c>
-      <c r="I53" s="66">
+      <c r="I53" s="58">
         <v>0</v>
       </c>
       <c r="J53" s="4">
@@ -3421,7 +3428,7 @@
       <c r="H54" s="12">
         <v>0</v>
       </c>
-      <c r="I54" s="66">
+      <c r="I54" s="58">
         <v>0</v>
       </c>
       <c r="J54" s="10">
@@ -3460,7 +3467,7 @@
       <c r="H55" s="12">
         <v>0</v>
       </c>
-      <c r="I55" s="66">
+      <c r="I55" s="58">
         <v>0</v>
       </c>
       <c r="J55" s="10">
@@ -3499,7 +3506,7 @@
       <c r="H56" s="12">
         <v>0</v>
       </c>
-      <c r="I56" s="66">
+      <c r="I56" s="58">
         <v>0</v>
       </c>
       <c r="J56" s="10">
@@ -3538,7 +3545,7 @@
       <c r="H57" s="12">
         <v>0</v>
       </c>
-      <c r="I57" s="66">
+      <c r="I57" s="58">
         <v>0</v>
       </c>
       <c r="J57" s="10">
@@ -3577,7 +3584,7 @@
       <c r="H58" s="12">
         <v>0</v>
       </c>
-      <c r="I58" s="66">
+      <c r="I58" s="58">
         <v>0</v>
       </c>
       <c r="J58" s="10">
@@ -3616,7 +3623,7 @@
       <c r="H59" s="12">
         <v>0</v>
       </c>
-      <c r="I59" s="66">
+      <c r="I59" s="58">
         <v>0</v>
       </c>
       <c r="J59" s="10">
@@ -3655,7 +3662,7 @@
       <c r="H60" s="12">
         <v>0</v>
       </c>
-      <c r="I60" s="66">
+      <c r="I60" s="58">
         <v>0</v>
       </c>
       <c r="J60" s="10">
@@ -3674,7 +3681,7 @@
         <v>22</v>
       </c>
       <c r="B61" s="11">
-        <v>20170702</v>
+        <v>20170808</v>
       </c>
       <c r="C61" s="10">
         <f>SUM(C49:C60)</f>
@@ -3689,7 +3696,7 @@
         <v>1404</v>
       </c>
       <c r="F61" s="10">
-        <f t="shared" ref="F61:J61" si="8">SUM(F49:F60)</f>
+        <f t="shared" ref="F61:H61" si="8">SUM(F49:F60)</f>
         <v>289</v>
       </c>
       <c r="G61" s="10">
@@ -3700,12 +3707,12 @@
         <f t="shared" si="8"/>
         <v>148</v>
       </c>
-      <c r="I61" s="66">
+      <c r="I61" s="58">
         <f>SUM(I49:I60)</f>
         <v>377</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" ref="J61:N61" si="9">SUM(J49:J60)</f>
+        <f t="shared" ref="J61" si="9">SUM(J49:J60)</f>
         <v>3</v>
       </c>
       <c r="K61" s="42">
@@ -3713,6 +3720,567 @@
         <v>3375</v>
       </c>
       <c r="L61" s="13">
+        <f>3/3040</f>
+        <v>9.8684210526315793E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="4">
+        <v>1</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="8">
+        <v>571</v>
+      </c>
+      <c r="D64" s="8">
+        <v>582</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="53">
+        <v>340</v>
+      </c>
+      <c r="G64" s="53">
+        <v>199</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="59">
+        <v>35</v>
+      </c>
+      <c r="J64" s="9">
+        <v>3</v>
+      </c>
+      <c r="K64" s="4">
+        <f>SUM(C64:J64)</f>
+        <v>1730</v>
+      </c>
+      <c r="L64" s="6">
+        <f>J64/K64</f>
+        <v>1.7341040462427746E-3</v>
+      </c>
+      <c r="M64" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="4">
+        <v>2</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="8">
+        <v>703</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="59">
+        <v>169</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f>SUM(C65:J65)</f>
+        <v>872</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="4">
+        <v>3</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="48">
+        <v>372</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="59">
+        <v>185</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f>SUM(C66:J66)</f>
+        <v>557</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="4">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="48">
+        <v>255</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="58">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <f>SUM(C67:J67)</f>
+        <v>255</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="4">
+        <v>5</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="53">
+        <v>156</v>
+      </c>
+      <c r="I68" s="58">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" ref="K68:K75" si="10">SUM(C68:J68)</f>
+        <v>156</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="10">
+        <v>6</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>54</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="58">
+        <v>0</v>
+      </c>
+      <c r="J69" s="10">
+        <v>0</v>
+      </c>
+      <c r="K69" s="10">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="L69" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="10">
+        <v>7</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
+        <v>40</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="58">
+        <v>0</v>
+      </c>
+      <c r="J70" s="10">
+        <v>0</v>
+      </c>
+      <c r="K70" s="10">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="L70" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="10">
+        <v>8</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0</v>
+      </c>
+      <c r="D71" s="68">
+        <v>36</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="58">
+        <v>0</v>
+      </c>
+      <c r="J71" s="10">
+        <v>0</v>
+      </c>
+      <c r="K71" s="10">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="L71" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="10">
+        <v>9</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="10">
+        <v>0</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
+        <v>24</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="58">
+        <v>0</v>
+      </c>
+      <c r="J72" s="10">
+        <v>0</v>
+      </c>
+      <c r="K72" s="10">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="L72" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="10">
+        <v>10</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="10">
+        <v>0</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10">
+        <v>26</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="58">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10">
+        <v>0</v>
+      </c>
+      <c r="K73" s="10">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="L73" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="10">
+        <v>11</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="10">
+        <v>0</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="42">
+        <v>66</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="58">
+        <v>0</v>
+      </c>
+      <c r="J74" s="10">
+        <v>0</v>
+      </c>
+      <c r="K74" s="10">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="L74" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="10">
+        <v>12</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="49">
+        <v>12</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="58">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="L75" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="11">
+        <v>20170808</v>
+      </c>
+      <c r="C76" s="10">
+        <f>SUM(C64:C75)</f>
+        <v>571</v>
+      </c>
+      <c r="D76" s="10">
+        <f>SUM(D64:D75)</f>
+        <v>618</v>
+      </c>
+      <c r="E76" s="10">
+        <f>SUM(E64:E75)</f>
+        <v>1552</v>
+      </c>
+      <c r="F76" s="10">
+        <f t="shared" ref="F76:H76" si="11">SUM(F64:F75)</f>
+        <v>340</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="11"/>
+        <v>199</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="I76" s="58">
+        <f>SUM(I64:I75)</f>
+        <v>389</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" ref="J76" si="12">SUM(J64:J75)</f>
+        <v>3</v>
+      </c>
+      <c r="K76" s="42">
+        <f>SUM(K64:K75)</f>
+        <v>3828</v>
+      </c>
+      <c r="L76" s="13">
         <f>3/3040</f>
         <v>9.8684210526315793E-4</v>
       </c>
@@ -3734,7 +4302,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3760,22 +4328,22 @@
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="59" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="63" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="64"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="39" t="s">
         <v>38</v>
       </c>
@@ -4586,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4683,9 +5251,15 @@
       <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" ht="20">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="45">
+        <v>20170927</v>
+      </c>
+      <c r="B8" s="45">
+        <v>603450</v>
+      </c>
+      <c r="C8" s="56">
+        <v>10.79</v>
+      </c>
       <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" ht="20">

--- a/社区运营.xlsx
+++ b/社区运营.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="69">
   <si>
     <t>系统运维专家</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -536,8 +536,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -760,6 +762,9 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,11 +789,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="65">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -820,6 +822,7 @@
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -851,6 +854,7 @@
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1183,7 +1187,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1478,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3808,7 +3812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -3847,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" s="4">
         <v>3</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" s="4">
         <v>4</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" s="4">
         <v>5</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" s="10">
         <v>6</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13">
       <c r="A70" s="10">
         <v>7</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13">
       <c r="A71" s="10">
         <v>8</v>
       </c>
@@ -4052,7 +4056,7 @@
       <c r="C71" s="10">
         <v>0</v>
       </c>
-      <c r="D71" s="68">
+      <c r="D71" s="60">
         <v>36</v>
       </c>
       <c r="E71" s="10">
@@ -4081,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13">
       <c r="A72" s="10">
         <v>9</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13">
       <c r="A73" s="10">
         <v>10</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:13">
       <c r="A74" s="10">
         <v>11</v>
       </c>
@@ -4198,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75" s="10">
         <v>12</v>
       </c>
@@ -4237,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" s="10" t="s">
         <v>22</v>
       </c>
@@ -4281,6 +4285,567 @@
         <v>3828</v>
       </c>
       <c r="L76" s="13">
+        <f>3/3040</f>
+        <v>9.8684210526315793E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="4">
+        <v>1</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="8">
+        <v>623</v>
+      </c>
+      <c r="D79" s="8">
+        <v>635</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+      <c r="F79" s="53">
+        <v>446</v>
+      </c>
+      <c r="G79" s="53">
+        <v>270</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+      <c r="I79" s="59">
+        <v>35</v>
+      </c>
+      <c r="J79" s="9">
+        <v>3</v>
+      </c>
+      <c r="K79" s="4">
+        <f>SUM(C79:J79)</f>
+        <v>2012</v>
+      </c>
+      <c r="L79" s="6">
+        <f>J79/K79</f>
+        <v>1.4910536779324055E-3</v>
+      </c>
+      <c r="M79" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="4">
+        <v>2</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
+        <v>866</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
+      <c r="I80" s="59">
+        <v>172</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <f>SUM(C80:J80)</f>
+        <v>1038</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="4">
+        <v>3</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+      <c r="E81" s="48">
+        <v>410</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="59">
+        <v>188</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f>SUM(C81:J81)</f>
+        <v>598</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="4">
+        <v>4</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="48">
+        <v>371</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="58">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f>SUM(C82:J82)</f>
+        <v>371</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="4">
+        <v>5</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="53">
+        <v>165</v>
+      </c>
+      <c r="I83" s="58">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" ref="K83:K90" si="13">SUM(C83:J83)</f>
+        <v>165</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="10">
+        <v>6</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="10">
+        <v>0</v>
+      </c>
+      <c r="D84" s="10">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
+        <v>66</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="I84" s="58">
+        <v>0</v>
+      </c>
+      <c r="J84" s="10">
+        <v>0</v>
+      </c>
+      <c r="K84" s="10">
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="L84" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="10">
+        <v>7</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="10">
+        <v>0</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <v>46</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="I85" s="58">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10">
+        <v>0</v>
+      </c>
+      <c r="K85" s="10">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="L85" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="10">
+        <v>8</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="10">
+        <v>0</v>
+      </c>
+      <c r="D86" s="60">
+        <v>36</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+      <c r="F86" s="10">
+        <v>0</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0</v>
+      </c>
+      <c r="H86" s="12">
+        <v>0</v>
+      </c>
+      <c r="I86" s="58">
+        <v>0</v>
+      </c>
+      <c r="J86" s="10">
+        <v>0</v>
+      </c>
+      <c r="K86" s="10">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="L86" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="10">
+        <v>9</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="10">
+        <v>0</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
+      <c r="E87" s="10">
+        <v>28</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
+      <c r="H87" s="12">
+        <v>0</v>
+      </c>
+      <c r="I87" s="58">
+        <v>0</v>
+      </c>
+      <c r="J87" s="10">
+        <v>0</v>
+      </c>
+      <c r="K87" s="10">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="L87" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="10">
+        <v>10</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="10">
+        <v>0</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0</v>
+      </c>
+      <c r="E88" s="10">
+        <v>29</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="I88" s="58">
+        <v>0</v>
+      </c>
+      <c r="J88" s="10">
+        <v>0</v>
+      </c>
+      <c r="K88" s="10">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="L88" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="10">
+        <v>11</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="10">
+        <v>0</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
+      <c r="E89" s="42">
+        <v>86</v>
+      </c>
+      <c r="F89" s="10">
+        <v>0</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+      <c r="I89" s="58">
+        <v>0</v>
+      </c>
+      <c r="J89" s="10">
+        <v>0</v>
+      </c>
+      <c r="K89" s="10">
+        <f t="shared" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="L89" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="10">
+        <v>12</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="10">
+        <v>0</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0</v>
+      </c>
+      <c r="E90" s="49">
+        <v>13</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0</v>
+      </c>
+      <c r="I90" s="58">
+        <v>0</v>
+      </c>
+      <c r="J90" s="10">
+        <v>0</v>
+      </c>
+      <c r="K90" s="10">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="L90" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" s="11">
+        <v>20171114</v>
+      </c>
+      <c r="C91" s="10">
+        <f>SUM(C79:C90)</f>
+        <v>623</v>
+      </c>
+      <c r="D91" s="10">
+        <f>SUM(D79:D90)</f>
+        <v>671</v>
+      </c>
+      <c r="E91" s="10">
+        <f>SUM(E79:E90)</f>
+        <v>1915</v>
+      </c>
+      <c r="F91" s="10">
+        <f t="shared" ref="F91:H91" si="14">SUM(F79:F90)</f>
+        <v>446</v>
+      </c>
+      <c r="G91" s="10">
+        <f t="shared" si="14"/>
+        <v>270</v>
+      </c>
+      <c r="H91" s="10">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="I91" s="58">
+        <f>SUM(I79:I90)</f>
+        <v>395</v>
+      </c>
+      <c r="J91" s="10">
+        <f t="shared" ref="J91" si="15">SUM(J79:J90)</f>
+        <v>3</v>
+      </c>
+      <c r="K91" s="42">
+        <f>SUM(K79:K90)</f>
+        <v>4488</v>
+      </c>
+      <c r="L91" s="13">
         <f>3/3040</f>
         <v>9.8684210526315793E-4</v>
       </c>
@@ -4328,22 +4893,22 @@
       <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="60" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="67"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="39" t="s">
         <v>38</v>
       </c>
@@ -5154,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
